--- a/gestor/mackensina_importacao_equipe_escolar.xlsx
+++ b/gestor/mackensina_importacao_equipe_escolar.xlsx
@@ -1,17 +1,17 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10916"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27928"/>
   <workbookPr codeName="EstaPastaDeTrabalho"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/daniel/Downloads/mackensina_importacao_aluno_equipe_escolar_2024 (5)/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\cunha\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4ACCD693-7377-374A-8098-8C874FE28045}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9E1B88D0-A9E3-4F5B-97AE-69273A91DC49}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <workbookProtection workbookAlgorithmName="SHA-512" workbookHashValue="LypbPgaBzyg654G54dFLKc90jeaf4ohiZuwoGZqqXchwFLf8ypiml4XOXHN/xJPFfn9H2fKrk1arq23BIjJ9FQ==" workbookSaltValue="EzRHM8H708z3iplUusZT7g==" workbookSpinCount="100000" lockStructure="1"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Equipe Escolar" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="25">
   <si>
     <t>Equipe Escolar</t>
   </si>
@@ -205,86 +205,20 @@
     </r>
   </si>
   <si>
-    <t>Planilha de importação da equipe escolar para o MackEnsina 2024 (v 1.0.1)</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Por favor, após atender todas as recomendações acima, salve a planilha com o seguinte nome </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="Calibri (Corpo)"/>
-      </rPr>
-      <t>mackensina_importacao_equipe_escolar_2024_CNPJ da sua escola.xlsx</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="14"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> e envie o arquivo para o e-mail </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="14"/>
-        <color theme="4" tint="-0.499984740745262"/>
-        <rFont val="Calibri (Corpo)"/>
-      </rPr>
-      <t xml:space="preserve">mackensina@mackenzie.br. </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="14"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">                                                                                                                                                                                                                                                       O processo de importação dos dados pode levar até </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <u/>
-        <sz val="14"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri (Corpo)"/>
-      </rPr>
-      <t>72 horas</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="14"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> a partir do recebimento do arquivo.</t>
-    </r>
-  </si>
-  <si>
     <t>Ensino Fundamental - Anos Iniciais</t>
   </si>
   <si>
     <t>Ensino Fundamental - Anos Finais</t>
+  </si>
+  <si>
+    <t>(v 1.0.1)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="16" x14ac:knownFonts="1">
+  <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -363,40 +297,6 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="14"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="14"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <u/>
-      <sz val="14"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri (Corpo)"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="14"/>
-      <color theme="1"/>
-      <name val="Calibri (Corpo)"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="14"/>
-      <color theme="4" tint="-0.499984740745262"/>
-      <name val="Calibri (Corpo)"/>
-    </font>
   </fonts>
   <fills count="7">
     <fill>
@@ -436,7 +336,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="12">
+  <borders count="11">
     <border>
       <left/>
       <right/>
@@ -499,15 +399,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="thin">
-        <color theme="0" tint="-4.9989318521683403E-2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color theme="0" tint="-4.9989318521683403E-2"/>
       </left>
@@ -580,7 +471,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
@@ -602,10 +493,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="1" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -615,25 +506,20 @@
     <xf numFmtId="0" fontId="9" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="6" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -641,12 +527,9 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle name="Hiperlink" xfId="1" builtinId="8"/>
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -970,47 +853,47 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Planilha1"/>
-  <dimension ref="A1:H9"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="0" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="0" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="53.33203125" style="6" customWidth="1"/>
-    <col min="2" max="2" width="50.83203125" style="6" customWidth="1"/>
+    <col min="1" max="1" width="53.28515625" style="6" customWidth="1"/>
+    <col min="2" max="2" width="50.85546875" style="6" customWidth="1"/>
     <col min="3" max="3" width="33" style="6" customWidth="1"/>
-    <col min="4" max="4" width="74.5" style="6" customWidth="1"/>
+    <col min="4" max="4" width="74.42578125" style="6" customWidth="1"/>
     <col min="5" max="6" width="0" style="7" hidden="1" customWidth="1"/>
-    <col min="7" max="16384" width="9.1640625" style="7" hidden="1"/>
+    <col min="7" max="16384" width="9.140625" style="7" hidden="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" s="8" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="B1" s="9"/>
       <c r="C1" s="8"/>
       <c r="D1" s="8"/>
     </row>
-    <row r="2" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="16" t="s">
+    <row r="2" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="14" t="s">
         <v>19</v>
       </c>
-      <c r="B2" s="16"/>
-      <c r="C2" s="16"/>
-      <c r="D2" s="16"/>
-    </row>
-    <row r="3" spans="1:8" ht="59.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="17" t="s">
+      <c r="B2" s="14"/>
+      <c r="C2" s="14"/>
+      <c r="D2" s="14"/>
+    </row>
+    <row r="3" spans="1:8" ht="59.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="15" t="s">
         <v>21</v>
       </c>
-      <c r="B3" s="18"/>
-      <c r="C3" s="18"/>
-      <c r="D3" s="19"/>
-    </row>
-    <row r="4" spans="1:8" ht="32" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B3" s="16"/>
+      <c r="C3" s="16"/>
+      <c r="D3" s="17"/>
+    </row>
+    <row r="4" spans="1:8" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="13" t="s">
         <v>20</v>
       </c>
@@ -1022,88 +905,75 @@
       <c r="G4" s="13"/>
       <c r="H4" s="13"/>
     </row>
-    <row r="5" spans="1:8" ht="49" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="14" t="s">
+    <row r="5" spans="1:8" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="18" t="s">
+        <v>0</v>
+      </c>
+      <c r="B5" s="19"/>
+      <c r="C5" s="19"/>
+      <c r="D5" s="20"/>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A6" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="B6" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="C6" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="D6" s="11" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A7" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="B7" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="C7" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="D7" s="6" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A8" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="B8" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="C8" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="D8" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="B5" s="15"/>
-      <c r="C5" s="15"/>
-      <c r="D5" s="15"/>
-      <c r="E5" s="15"/>
-      <c r="F5" s="15"/>
-      <c r="G5" s="15"/>
-      <c r="H5" s="15"/>
-    </row>
-    <row r="6" spans="1:8" ht="32" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="20" t="s">
-        <v>0</v>
-      </c>
-      <c r="B6" s="21"/>
-      <c r="C6" s="21"/>
-      <c r="D6" s="22"/>
-    </row>
-    <row r="7" spans="1:8" ht="16" x14ac:dyDescent="0.2">
-      <c r="A7" s="10" t="s">
-        <v>1</v>
-      </c>
-      <c r="B7" s="10" t="s">
-        <v>2</v>
-      </c>
-      <c r="C7" s="11" t="s">
-        <v>3</v>
-      </c>
-      <c r="D7" s="11" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A8" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="B8" s="12" t="s">
-        <v>15</v>
-      </c>
-      <c r="C8" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="D8" s="6" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A9" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="B9" s="12" t="s">
-        <v>18</v>
-      </c>
-      <c r="C9" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="D9" s="6" t="s">
-        <v>25</v>
-      </c>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="CMMBRmfY0ra0N7EQyZIQC7m9ks+HGlp79vYqseNeV3T1VseAqwBUZtHEjfL0i59PovSVS8afOhEQoS7qmGDbag==" saltValue="Xlfxz9FkgTWFCFFRkc7UDw==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A8:C54">
-    <sortCondition ref="A8"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="Kxm/8/CIPg5FSqkJQzb2T+5yf/saFQCuHAnhUzgfQvuuLaqO/95IwYdPdkdNQ4Cw42CdyMQW1KXYxRKz1cxaPQ==" saltValue="zFKB/ouSOUj/yxftSw0CBg==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A7:C53">
+    <sortCondition ref="A7"/>
   </sortState>
-  <mergeCells count="5">
+  <mergeCells count="4">
     <mergeCell ref="A4:H4"/>
-    <mergeCell ref="A5:H5"/>
     <mergeCell ref="A2:D2"/>
     <mergeCell ref="A3:D3"/>
-    <mergeCell ref="A6:D6"/>
+    <mergeCell ref="A5:D5"/>
   </mergeCells>
   <dataValidations count="1">
-    <dataValidation type="custom" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="E-mail Inválido" error="Verificar o formato do e-mail." sqref="B1:B2 B6 B8:B14 B15:B1048576" xr:uid="{00000000-0002-0000-0000-000000000000}">
+    <dataValidation type="custom" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="E-mail Inválido" error="Verificar o formato do e-mail." sqref="B1:B2 B5 B7:B13 B14:B1048576" xr:uid="{00000000-0002-0000-0000-000000000000}">
       <formula1>ISNUMBER(MATCH("*@*.??*",B1,0))</formula1>
     </dataValidation>
   </dataValidations>
   <hyperlinks>
-    <hyperlink ref="B8" r:id="rId1" xr:uid="{B4872E6F-DB72-40F9-9E07-A8379B4108A8}"/>
-    <hyperlink ref="B9" r:id="rId2" xr:uid="{E741E72C-3603-4FC7-95C1-0CBA1BB4B9AF}"/>
+    <hyperlink ref="B7" r:id="rId1" xr:uid="{B4872E6F-DB72-40F9-9E07-A8379B4108A8}"/>
+    <hyperlink ref="B8" r:id="rId2" xr:uid="{E741E72C-3603-4FC7-95C1-0CBA1BB4B9AF}"/>
   </hyperlinks>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId3"/>
@@ -1114,13 +984,13 @@
           <x14:formula1>
             <xm:f>Ajuda!$A$3:$A$6</xm:f>
           </x14:formula1>
-          <xm:sqref>C8:C14 C15:C1048576</xm:sqref>
+          <xm:sqref>C7:C13 C14:C1048576</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" errorStyle="information" showInputMessage="1" xr:uid="{ADF99A8D-24EB-43BB-AEC6-8F8A2FDC1DEA}">
           <x14:formula1>
             <xm:f>Ajuda!$A$10:$A$14</xm:f>
           </x14:formula1>
-          <xm:sqref>D8:D1048576</xm:sqref>
+          <xm:sqref>D7:D1048576</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
@@ -1137,79 +1007,79 @@
       <selection activeCell="A10" sqref="A10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="83.5" customWidth="1"/>
+    <col min="1" max="1" width="83.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" s="2"/>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A5" s="4" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A6" s="4" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A7" s="4"/>
     </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A8" s="3"/>
     </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A10" s="4" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A11" s="4" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="12" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A12" s="4" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="13" spans="1:1" x14ac:dyDescent="0.2">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="13" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A13" s="4" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="14" spans="1:1" x14ac:dyDescent="0.2">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="14" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A14" s="4" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="15" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A15" s="4"/>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A18" s="5"/>
     </row>
   </sheetData>

--- a/gestor/mackensina_importacao_equipe_escolar.xlsx
+++ b/gestor/mackensina_importacao_equipe_escolar.xlsx
@@ -8,8 +8,8 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\cunha\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9E1B88D0-A9E3-4F5B-97AE-69273A91DC49}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
-  <workbookProtection workbookAlgorithmName="SHA-512" workbookHashValue="LypbPgaBzyg654G54dFLKc90jeaf4ohiZuwoGZqqXchwFLf8ypiml4XOXHN/xJPFfn9H2fKrk1arq23BIjJ9FQ==" workbookSaltValue="EzRHM8H708z3iplUusZT7g==" workbookSpinCount="100000" lockStructure="1"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B764F3EA-B1B4-4D5A-B300-AD05437CE5AC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <workbookProtection workbookAlgorithmName="SHA-512" workbookHashValue="nGpAJ5FJJVGvNtmGFWdkFiqM2166Ym3tNC/eMIacGOINlsFbUA1EpiDhY7ckTzSWGpx+uqujn3oxeRukYXfV4A==" workbookSaltValue="gnpfsaxFnCk/18sMWNGcdg==" workbookSpinCount="100000" lockStructure="1"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -856,7 +856,7 @@
   <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+      <selection activeCell="B21" sqref="B21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="0" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -956,7 +956,7 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="Kxm/8/CIPg5FSqkJQzb2T+5yf/saFQCuHAnhUzgfQvuuLaqO/95IwYdPdkdNQ4Cw42CdyMQW1KXYxRKz1cxaPQ==" saltValue="zFKB/ouSOUj/yxftSw0CBg==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="77pkrD3JiWXw5hrbstzF7EZzVjUksL9FLP0eAKCsMoPeo6Ucz3X1fFdoOhdbtBror4sRyQTQHrvX5EYhJu3yEQ==" saltValue="VAXGRd2NQkLKG9i6OS11bg==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A7:C53">
     <sortCondition ref="A7"/>
   </sortState>

--- a/gestor/mackensina_importacao_equipe_escolar.xlsx
+++ b/gestor/mackensina_importacao_equipe_escolar.xlsx
@@ -1,15 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27928"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26026"/>
   <workbookPr codeName="EstaPastaDeTrabalho"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\cunha\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\github\sme_images\gestor\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B764F3EA-B1B4-4D5A-B300-AD05437CE5AC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
-  <workbookProtection workbookAlgorithmName="SHA-512" workbookHashValue="nGpAJ5FJJVGvNtmGFWdkFiqM2166Ym3tNC/eMIacGOINlsFbUA1EpiDhY7ckTzSWGpx+uqujn3oxeRukYXfV4A==" workbookSaltValue="gnpfsaxFnCk/18sMWNGcdg==" workbookSpinCount="100000" lockStructure="1"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0B5612B4-C97C-4D21-826B-BB2F9600016E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -27,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="25">
   <si>
     <t>Equipe Escolar</t>
   </si>
@@ -108,9 +107,6 @@
   </si>
   <si>
     <t>Selecione na coluna "Etapa de Ensino" um dos itens abaixo.</t>
-  </si>
-  <si>
-    <t>sem segmento</t>
   </si>
   <si>
     <t>Educação Infantil</t>
@@ -160,9 +156,21 @@
     </r>
   </si>
   <si>
+    <t>Ensino Fundamental - Anos Iniciais</t>
+  </si>
+  <si>
+    <t>Ensino Fundamental - Anos Finais</t>
+  </si>
+  <si>
+    <t>Extracurricular</t>
+  </si>
+  <si>
+    <t>(v 1.0.4)</t>
+  </si>
+  <si>
     <r>
       <t xml:space="preserve">Preste atenção aos campos obrigatórios para garantir uma importação bem-sucedida. 
-Evite retrabalho, não altere a ordenação das colunas. Caso contrário, o sistema não reconhecerá as informações.
+Evite retrabalho, não altere a ordenação das colunas, não deixar linhas em branco. Caso contrário, o sistema não reconhecerá as informações.
 Para adicionar mais de um </t>
     </r>
     <r>
@@ -203,15 +211,6 @@
       </rPr>
       <t>, insira manualmente cada item separado por vírgula no campo apropriado.</t>
     </r>
-  </si>
-  <si>
-    <t>Ensino Fundamental - Anos Iniciais</t>
-  </si>
-  <si>
-    <t>Ensino Fundamental - Anos Finais</t>
-  </si>
-  <si>
-    <t>(v 1.0.1)</t>
   </si>
 </sst>
 </file>
@@ -529,7 +528,7 @@
     </xf>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
+    <cellStyle name="Hiperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -856,7 +855,7 @@
   <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="B21" sqref="B21"/>
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="0" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -871,7 +870,7 @@
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" s="8" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B1" s="9"/>
       <c r="C1" s="8"/>
@@ -879,7 +878,7 @@
     </row>
     <row r="2" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="14" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B2" s="14"/>
       <c r="C2" s="14"/>
@@ -887,7 +886,7 @@
     </row>
     <row r="3" spans="1:8" ht="59.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="15" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="B3" s="16"/>
       <c r="C3" s="16"/>
@@ -895,7 +894,7 @@
     </row>
     <row r="4" spans="1:8" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="13" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B4" s="13"/>
       <c r="C4" s="13"/>
@@ -929,34 +928,34 @@
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="B7" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="B7" s="12" t="s">
+      <c r="C7" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="C7" s="6" t="s">
-        <v>16</v>
-      </c>
       <c r="D7" s="6" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="B8" s="12" t="s">
         <v>17</v>
-      </c>
-      <c r="B8" s="12" t="s">
-        <v>18</v>
       </c>
       <c r="C8" s="6" t="s">
         <v>9</v>
       </c>
       <c r="D8" s="6" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="77pkrD3JiWXw5hrbstzF7EZzVjUksL9FLP0eAKCsMoPeo6Ucz3X1fFdoOhdbtBror4sRyQTQHrvX5EYhJu3yEQ==" saltValue="VAXGRd2NQkLKG9i6OS11bg==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="8HA0cRaPShs2tPOWjH2Gyu/1hzA2KuMOozz3wprzMBquRGuPbwaXsMsDU8jLHWgcG/FLL1jC7+QFPYYIkM39Yw==" saltValue="wP7E0JhfZQhwnMcs8gWoNg==" spinCount="100000" sheet="1" insertRows="0" deleteRows="0" selectLockedCells="1"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A7:C53">
     <sortCondition ref="A7"/>
   </sortState>
@@ -982,7 +981,7 @@
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="2">
         <x14:dataValidation type="list" errorStyle="information" showInputMessage="1" xr:uid="{00000000-0002-0000-0000-000001000000}">
           <x14:formula1>
-            <xm:f>Ajuda!$A$3:$A$6</xm:f>
+            <xm:f>Ajuda!$A$3:$A$7</xm:f>
           </x14:formula1>
           <xm:sqref>C7:C13 C14:C1048576</xm:sqref>
         </x14:dataValidation>
@@ -1001,10 +1000,10 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <sheetPr codeName="Planilha2"/>
-  <dimension ref="A1:A18"/>
+  <dimension ref="A1:A17"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="A10" sqref="A10"/>
+      <selection activeCell="A10" sqref="A10:XFD10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1041,7 +1040,9 @@
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A7" s="4"/>
+      <c r="A7" s="4" t="s">
+        <v>0</v>
+      </c>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A8" s="3"/>
@@ -1058,29 +1059,26 @@
     </row>
     <row r="11" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A11" s="4" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="12" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A12" s="4" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="13" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A13" s="4" t="s">
-        <v>23</v>
+        <v>12</v>
       </c>
     </row>
     <row r="14" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A14" s="4" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="15" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A15" s="4"/>
-    </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A18" s="5"/>
+        <v>22</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A17" s="5"/>
     </row>
   </sheetData>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>

--- a/gestor/mackensina_importacao_equipe_escolar.xlsx
+++ b/gestor/mackensina_importacao_equipe_escolar.xlsx
@@ -8,7 +8,8 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\github\sme_images\gestor\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0B5612B4-C97C-4D21-826B-BB2F9600016E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D3B2B92C-0BA3-401D-BAA7-C4B07E0A7E1C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <workbookProtection workbookAlgorithmName="SHA-512" workbookHashValue="fAORGqNbahi3jdEThDk9COAA7VHYGF5GzgAfGySezzBLZsBJO2wqIu+m/95peTwCqiFHzWug9GdQXbCLVqMvbQ==" workbookSaltValue="N9ywSHkq9B4XAiGQ7J6+hQ==" workbookSpinCount="100000" lockStructure="1"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -855,7 +856,7 @@
   <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+      <selection activeCell="A12" sqref="A12:XFD12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="0" defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/gestor/mackensina_importacao_equipe_escolar.xlsx
+++ b/gestor/mackensina_importacao_equipe_escolar.xlsx
@@ -8,8 +8,8 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\github\sme_images\gestor\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D3B2B92C-0BA3-401D-BAA7-C4B07E0A7E1C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
-  <workbookProtection workbookAlgorithmName="SHA-512" workbookHashValue="fAORGqNbahi3jdEThDk9COAA7VHYGF5GzgAfGySezzBLZsBJO2wqIu+m/95peTwCqiFHzWug9GdQXbCLVqMvbQ==" workbookSaltValue="N9ywSHkq9B4XAiGQ7J6+hQ==" workbookSpinCount="100000" lockStructure="1"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A3A72B79-06F9-47A4-B398-C6E188B9E666}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <workbookProtection workbookAlgorithmName="SHA-512" workbookHashValue="z7bSPsNe2SUpZIUA4Eg5xjSmJ/JRmE613EnaBRw9zH+KW5Evsf7gwzpvIWprFA2Smt1u+7YphEnl/6AY9+rcWg==" workbookSaltValue="ZqkC9RHkIQ8WxQ5jfXRGRg==" workbookSpinCount="100000" lockStructure="1"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -170,8 +170,7 @@
   </si>
   <si>
     <r>
-      <t xml:space="preserve">Preste atenção aos campos obrigatórios para garantir uma importação bem-sucedida. 
-Evite retrabalho, não altere a ordenação das colunas, não deixar linhas em branco. Caso contrário, o sistema não reconhecerá as informações.
+      <t xml:space="preserve">Evite retrabalho: não altere a ordenação das colunas e não deixe linhas em branco. Caso contrário, o sistema não reconhecerá as informações.
 Para adicionar mais de um </t>
     </r>
     <r>
@@ -855,8 +854,8 @@
   <sheetPr codeName="Planilha1"/>
   <dimension ref="A1:H8"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="A12" sqref="A12:XFD12"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="0" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -885,7 +884,7 @@
       <c r="C2" s="14"/>
       <c r="D2" s="14"/>
     </row>
-    <row r="3" spans="1:8" ht="59.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" ht="42.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="15" t="s">
         <v>24</v>
       </c>
@@ -956,7 +955,7 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="8HA0cRaPShs2tPOWjH2Gyu/1hzA2KuMOozz3wprzMBquRGuPbwaXsMsDU8jLHWgcG/FLL1jC7+QFPYYIkM39Yw==" saltValue="wP7E0JhfZQhwnMcs8gWoNg==" spinCount="100000" sheet="1" insertRows="0" deleteRows="0" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="2/z/hMI36YiOBE+JjCZz2Qz3gsizlHP4uV798POwknjgyy/Kk2aN4rsqSD0w13pGFNl3B+Rwa0Z726avpcve8g==" saltValue="sHLUGqVfdS6A8jNRwBmIog==" spinCount="100000" sheet="1" insertRows="0" deleteRows="0" selectLockedCells="1"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A7:C53">
     <sortCondition ref="A7"/>
   </sortState>

--- a/gestor/mackensina_importacao_equipe_escolar.xlsx
+++ b/gestor/mackensina_importacao_equipe_escolar.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\github\sme_images\gestor\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A3A72B79-06F9-47A4-B398-C6E188B9E666}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7FAD31C2-6F37-4171-B5C9-86493D2D7F54}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <workbookProtection workbookAlgorithmName="SHA-512" workbookHashValue="z7bSPsNe2SUpZIUA4Eg5xjSmJ/JRmE613EnaBRw9zH+KW5Evsf7gwzpvIWprFA2Smt1u+7YphEnl/6AY9+rcWg==" workbookSaltValue="ZqkC9RHkIQ8WxQ5jfXRGRg==" workbookSpinCount="100000" lockStructure="1"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
@@ -855,7 +855,7 @@
   <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A7" sqref="A7"/>
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="0" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -955,7 +955,7 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="2/z/hMI36YiOBE+JjCZz2Qz3gsizlHP4uV798POwknjgyy/Kk2aN4rsqSD0w13pGFNl3B+Rwa0Z726avpcve8g==" saltValue="sHLUGqVfdS6A8jNRwBmIog==" spinCount="100000" sheet="1" insertRows="0" deleteRows="0" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="QtLqgJIvAjFK/ZcN4dCoXzLZTgGS1vPIONI5anzbS6aMpEjZ8Mu88PyLE34wD6MWfL6ujCX0fHdvYzvKFQctQA==" saltValue="nbZ2A5wBGgCLjKCELECnzg==" spinCount="100000" sheet="1" insertRows="0" deleteRows="0" selectLockedCells="1"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A7:C53">
     <sortCondition ref="A7"/>
   </sortState>
@@ -966,9 +966,7 @@
     <mergeCell ref="A5:D5"/>
   </mergeCells>
   <dataValidations count="1">
-    <dataValidation type="custom" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="E-mail Inválido" error="Verificar o formato do e-mail." sqref="B1:B2 B5 B7:B13 B14:B1048576" xr:uid="{00000000-0002-0000-0000-000000000000}">
-      <formula1>ISNUMBER(MATCH("*@*.??*",B1,0))</formula1>
-    </dataValidation>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="E-mail Inválido" error="Verificar o formato do e-mail." sqref="B1:B2 B5 B7:B13 B14:B1048576" xr:uid="{00000000-0002-0000-0000-000000000000}"/>
   </dataValidations>
   <hyperlinks>
     <hyperlink ref="B7" r:id="rId1" xr:uid="{B4872E6F-DB72-40F9-9E07-A8379B4108A8}"/>

--- a/gestor/mackensina_importacao_equipe_escolar.xlsx
+++ b/gestor/mackensina_importacao_equipe_escolar.xlsx
@@ -8,8 +8,8 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\github\sme_images\gestor\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7FAD31C2-6F37-4171-B5C9-86493D2D7F54}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
-  <workbookProtection workbookAlgorithmName="SHA-512" workbookHashValue="z7bSPsNe2SUpZIUA4Eg5xjSmJ/JRmE613EnaBRw9zH+KW5Evsf7gwzpvIWprFA2Smt1u+7YphEnl/6AY9+rcWg==" workbookSaltValue="ZqkC9RHkIQ8WxQ5jfXRGRg==" workbookSpinCount="100000" lockStructure="1"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{40821BE9-E88F-4224-8219-7A2049A976A5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <workbookProtection workbookAlgorithmName="SHA-512" workbookHashValue="SISlwmw7lm7VJNu3vAAB54bsq3PMzRlVRQxzYDeoHQulyXbEr+zdz8buzVIZHUta7qwPbjQfCrj7gA+xyKOiNg==" workbookSaltValue="kuJuoCCzCHf/7Ny10/zA9w==" workbookSpinCount="100000" lockStructure="1"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="26">
   <si>
     <t>Equipe Escolar</t>
   </si>
@@ -211,6 +211,9 @@
       </rPr>
       <t>, insira manualmente cada item separado por vírgula no campo apropriado.</t>
     </r>
+  </si>
+  <si>
+    <t>Equipe Educacional</t>
   </si>
 </sst>
 </file>
@@ -855,7 +858,7 @@
   <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="0" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -955,7 +958,7 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="QtLqgJIvAjFK/ZcN4dCoXzLZTgGS1vPIONI5anzbS6aMpEjZ8Mu88PyLE34wD6MWfL6ujCX0fHdvYzvKFQctQA==" saltValue="nbZ2A5wBGgCLjKCELECnzg==" spinCount="100000" sheet="1" insertRows="0" deleteRows="0" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="o8afg0RmTYUFpDt3Q301HcHJWrSB5Tu+wduo1hvEUNIxoOLgS94fRqztLkSO2SL4vVo7l0zq3j3OZEpfrhMIqg==" saltValue="eZ+RlBm5Rvo/l1AmgCxWzw==" spinCount="100000" sheet="1" insertRows="0" deleteRows="0" selectLockedCells="1"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A7:C53">
     <sortCondition ref="A7"/>
   </sortState>
@@ -1001,7 +1004,7 @@
   <dimension ref="A1:A17"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="A10" sqref="A10:XFD10"/>
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1039,7 +1042,7 @@
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A7" s="4" t="s">
-        <v>0</v>
+        <v>25</v>
       </c>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.25">
@@ -1079,6 +1082,7 @@
       <c r="A17" s="5"/>
     </row>
   </sheetData>
+  <sheetProtection algorithmName="SHA-512" hashValue="cmJIjai+eZ/HVNLyFHAc1xkaf5gd10vJCK4y4y/k/TW83DLAgFvzhU6F9qeZLVD8/02daLAkf+Ha88BoqXrQ1w==" saltValue="b6/8KW4C0sWEXBeDxXgBOw==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
